--- a/ULTA.xlsx
+++ b/ULTA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7ED974-15DA-488F-BAA1-2550ECC594A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADCF97C-1826-7A44-8343-8FD46679346F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23895" yWindow="240" windowWidth="23325" windowHeight="20535" activeTab="1" xr2:uid="{78B1E967-2DB4-4F84-85C7-CF437E9BDEE9}"/>
+    <workbookView xWindow="-30500" yWindow="-18920" windowWidth="27180" windowHeight="15600" activeTab="1" xr2:uid="{78B1E967-2DB4-4F84-85C7-CF437E9BDEE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
   <si>
     <t>Price</t>
   </si>
@@ -190,6 +190,36 @@
   </si>
   <si>
     <t>Rev/store y/y</t>
+  </si>
+  <si>
+    <t>Sephora</t>
+  </si>
+  <si>
+    <t>WW</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Walgreens</t>
+  </si>
+  <si>
+    <t>CVS</t>
+  </si>
+  <si>
+    <t>Nordstrom's</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>ROIC</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Terminal</t>
   </si>
 </sst>
 </file>
@@ -197,7 +227,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -250,7 +280,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -647,13 +677,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C885B5EC-F51D-475B-801A-7D130C9D2E81}">
-  <dimension ref="B2:M9"/>
+  <dimension ref="B2:M16"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>37</v>
       </c>
@@ -664,7 +699,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
       <c r="K3" t="s">
         <v>1</v>
       </c>
@@ -675,7 +710,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>40</v>
       </c>
@@ -687,7 +722,7 @@
         <v>17385.334263000001</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>41</v>
       </c>
@@ -701,7 +736,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>42</v>
       </c>
@@ -715,7 +750,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>43</v>
       </c>
@@ -727,12 +762,12 @@
         <v>16971.334263000001</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>45</v>
       </c>
@@ -741,6 +776,55 @@
       </c>
       <c r="L9">
         <v>1990</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
+        <v>2700</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="C13">
+        <v>1700</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14">
+        <v>8500</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15">
+        <v>9674</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16">
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -750,28 +834,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7414C99A-A828-49A1-B085-1C6FB4178469}">
-  <dimension ref="A1:T48"/>
+  <dimension ref="A1:EJ48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S15" sqref="S15"/>
+      <selection pane="bottomRight" activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:140" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:140" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D2" s="5">
         <v>45045</v>
       </c>
@@ -808,8 +892,52 @@
       <c r="T2" s="5">
         <v>45325</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U2" s="5">
+        <f>+T2+365</f>
+        <v>45690</v>
+      </c>
+      <c r="V2" s="5">
+        <f>+U2+365</f>
+        <v>46055</v>
+      </c>
+      <c r="W2" s="5">
+        <f>+V2+365</f>
+        <v>46420</v>
+      </c>
+      <c r="X2" s="5">
+        <f>+W2+365</f>
+        <v>46785</v>
+      </c>
+      <c r="Y2" s="5">
+        <f>+X2+365</f>
+        <v>47150</v>
+      </c>
+      <c r="Z2" s="5">
+        <f>+Y2+365</f>
+        <v>47515</v>
+      </c>
+      <c r="AA2" s="5">
+        <f>+Z2+365</f>
+        <v>47880</v>
+      </c>
+      <c r="AB2" s="5">
+        <f>+AA2+365</f>
+        <v>48245</v>
+      </c>
+      <c r="AC2" s="5">
+        <f>+AB2+365</f>
+        <v>48610</v>
+      </c>
+      <c r="AD2" s="5">
+        <f>+AC2+365</f>
+        <v>48975</v>
+      </c>
+      <c r="AE2" s="5">
+        <f>+AD2+365</f>
+        <v>49340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:140" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>46</v>
       </c>
@@ -841,7 +969,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:140" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>47</v>
       </c>
@@ -879,19 +1007,19 @@
         <v>8.0919155234657048</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:140" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="G5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:140" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="G6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:140" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
@@ -931,8 +1059,52 @@
       <c r="T7" s="6">
         <v>11207.303</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U7" s="6">
+        <f>+T7*1.05</f>
+        <v>11767.66815</v>
+      </c>
+      <c r="V7" s="6">
+        <f>+U7*1.05</f>
+        <v>12356.051557500001</v>
+      </c>
+      <c r="W7" s="6">
+        <f>+V7*1.05</f>
+        <v>12973.854135375001</v>
+      </c>
+      <c r="X7" s="6">
+        <f>+W7*1.05</f>
+        <v>13622.546842143751</v>
+      </c>
+      <c r="Y7" s="6">
+        <f>+X7*1.05</f>
+        <v>14303.674184250938</v>
+      </c>
+      <c r="Z7" s="6">
+        <f>+Y7*1.05</f>
+        <v>15018.857893463486</v>
+      </c>
+      <c r="AA7" s="6">
+        <f>+Z7*1.05</f>
+        <v>15769.800788136661</v>
+      </c>
+      <c r="AB7" s="6">
+        <f>+AA7*1.05</f>
+        <v>16558.290827543497</v>
+      </c>
+      <c r="AC7" s="6">
+        <f>+AB7*1.05</f>
+        <v>17386.205368920673</v>
+      </c>
+      <c r="AD7" s="6">
+        <f>+AC7*1.05</f>
+        <v>18255.515637366709</v>
+      </c>
+      <c r="AE7" s="6">
+        <f>+AD7*1.05</f>
+        <v>19168.291419235044</v>
+      </c>
+    </row>
+    <row r="8" spans="1:140" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
@@ -972,8 +1144,52 @@
       <c r="T8" s="2">
         <v>6826.2030000000004</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U8" s="2">
+        <f>+U7-U9</f>
+        <v>7060.6008899999997</v>
+      </c>
+      <c r="V8" s="2">
+        <f t="shared" ref="V8:AE8" si="1">+V7-V9</f>
+        <v>7413.6309345</v>
+      </c>
+      <c r="W8" s="2">
+        <f t="shared" si="1"/>
+        <v>7784.3124812249998</v>
+      </c>
+      <c r="X8" s="2">
+        <f t="shared" si="1"/>
+        <v>8173.5281052862501</v>
+      </c>
+      <c r="Y8" s="2">
+        <f t="shared" si="1"/>
+        <v>8582.2045105505622</v>
+      </c>
+      <c r="Z8" s="2">
+        <f t="shared" si="1"/>
+        <v>9011.3147360780913</v>
+      </c>
+      <c r="AA8" s="2">
+        <f t="shared" si="1"/>
+        <v>9461.880472881996</v>
+      </c>
+      <c r="AB8" s="2">
+        <f t="shared" si="1"/>
+        <v>9934.9744965260979</v>
+      </c>
+      <c r="AC8" s="2">
+        <f t="shared" si="1"/>
+        <v>10431.723221352404</v>
+      </c>
+      <c r="AD8" s="2">
+        <f t="shared" si="1"/>
+        <v>10953.309382420026</v>
+      </c>
+      <c r="AE8" s="2">
+        <f t="shared" si="1"/>
+        <v>11500.974851541025</v>
+      </c>
+    </row>
+    <row r="9" spans="1:140" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1006,27 +1222,71 @@
         <v>2409.3109999999997</v>
       </c>
       <c r="P9" s="2">
-        <f t="shared" ref="P9:S9" si="1">+P7-P8</f>
+        <f t="shared" ref="P9:S9" si="2">+P7-P8</f>
         <v>2681.0640000000003</v>
       </c>
       <c r="Q9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1949.1590000000006</v>
       </c>
       <c r="R9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3368.5539999999992</v>
       </c>
       <c r="S9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4044.51</v>
       </c>
       <c r="T9" s="2">
         <f>+T7-T8</f>
         <v>4381.0999999999995</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U9" s="2">
+        <f>+U7*0.4</f>
+        <v>4707.0672599999998</v>
+      </c>
+      <c r="V9" s="2">
+        <f t="shared" ref="V9:AE9" si="3">+V7*0.4</f>
+        <v>4942.4206230000009</v>
+      </c>
+      <c r="W9" s="2">
+        <f t="shared" si="3"/>
+        <v>5189.5416541500008</v>
+      </c>
+      <c r="X9" s="2">
+        <f t="shared" si="3"/>
+        <v>5449.0187368575007</v>
+      </c>
+      <c r="Y9" s="2">
+        <f t="shared" si="3"/>
+        <v>5721.469673700376</v>
+      </c>
+      <c r="Z9" s="2">
+        <f t="shared" si="3"/>
+        <v>6007.5431573853948</v>
+      </c>
+      <c r="AA9" s="2">
+        <f t="shared" si="3"/>
+        <v>6307.9203152546652</v>
+      </c>
+      <c r="AB9" s="2">
+        <f t="shared" si="3"/>
+        <v>6623.3163310173986</v>
+      </c>
+      <c r="AC9" s="2">
+        <f t="shared" si="3"/>
+        <v>6954.4821475682693</v>
+      </c>
+      <c r="AD9" s="2">
+        <f t="shared" si="3"/>
+        <v>7302.2062549466837</v>
+      </c>
+      <c r="AE9" s="2">
+        <f t="shared" si="3"/>
+        <v>7667.316567694018</v>
+      </c>
+    </row>
+    <row r="10" spans="1:140" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
@@ -1070,8 +1330,52 @@
       <c r="T10" s="2">
         <v>2694.5610000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U10" s="2">
+        <f>+T10*1.04</f>
+        <v>2802.3434400000001</v>
+      </c>
+      <c r="V10" s="2">
+        <f t="shared" ref="V10:AE10" si="4">+U10*1.04</f>
+        <v>2914.4371776000003</v>
+      </c>
+      <c r="W10" s="2">
+        <f t="shared" si="4"/>
+        <v>3031.0146647040006</v>
+      </c>
+      <c r="X10" s="2">
+        <f t="shared" si="4"/>
+        <v>3152.2552512921607</v>
+      </c>
+      <c r="Y10" s="2">
+        <f t="shared" si="4"/>
+        <v>3278.3454613438471</v>
+      </c>
+      <c r="Z10" s="2">
+        <f t="shared" si="4"/>
+        <v>3409.4792797976011</v>
+      </c>
+      <c r="AA10" s="2">
+        <f t="shared" si="4"/>
+        <v>3545.8584509895054</v>
+      </c>
+      <c r="AB10" s="2">
+        <f t="shared" si="4"/>
+        <v>3687.6927890290858</v>
+      </c>
+      <c r="AC10" s="2">
+        <f t="shared" si="4"/>
+        <v>3835.2005005902492</v>
+      </c>
+      <c r="AD10" s="2">
+        <f t="shared" si="4"/>
+        <v>3988.6085206138591</v>
+      </c>
+      <c r="AE10" s="2">
+        <f t="shared" si="4"/>
+        <v>4148.1528614384133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:140" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1092,39 +1396,83 @@
         <v>329.20099999999991</v>
       </c>
       <c r="M11" s="2">
-        <f t="shared" ref="M11:S11" si="2">+M9-M10</f>
+        <f t="shared" ref="M11:S11" si="5">+M9-M10</f>
         <v>673.39500000000021</v>
       </c>
       <c r="N11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>809.57700000000023</v>
       </c>
       <c r="O11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>873.84699999999975</v>
       </c>
       <c r="P11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>920.34800000000041</v>
       </c>
       <c r="Q11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>366.14200000000051</v>
       </c>
       <c r="R11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1307.0089999999991</v>
       </c>
       <c r="S11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1649.2110000000002</v>
       </c>
       <c r="T11" s="2">
         <f>+T9-T10</f>
         <v>1686.5389999999993</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="2">
+        <f t="shared" ref="U11:AE11" si="6">+U9-U10</f>
+        <v>1904.7238199999997</v>
+      </c>
+      <c r="V11" s="2">
+        <f t="shared" si="6"/>
+        <v>2027.9834454000006</v>
+      </c>
+      <c r="W11" s="2">
+        <f t="shared" si="6"/>
+        <v>2158.5269894460002</v>
+      </c>
+      <c r="X11" s="2">
+        <f t="shared" si="6"/>
+        <v>2296.76348556534</v>
+      </c>
+      <c r="Y11" s="2">
+        <f t="shared" si="6"/>
+        <v>2443.1242123565289</v>
+      </c>
+      <c r="Z11" s="2">
+        <f t="shared" si="6"/>
+        <v>2598.0638775877937</v>
+      </c>
+      <c r="AA11" s="2">
+        <f t="shared" si="6"/>
+        <v>2762.0618642651598</v>
+      </c>
+      <c r="AB11" s="2">
+        <f t="shared" si="6"/>
+        <v>2935.6235419883128</v>
+      </c>
+      <c r="AC11" s="2">
+        <f t="shared" si="6"/>
+        <v>3119.28164697802</v>
+      </c>
+      <c r="AD11" s="2">
+        <f t="shared" si="6"/>
+        <v>3313.5977343328245</v>
+      </c>
+      <c r="AE11" s="2">
+        <f t="shared" si="6"/>
+        <v>3519.1637062556047</v>
+      </c>
+    </row>
+    <row r="12" spans="1:140" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1167,26 +1515,70 @@
       <c r="T12" s="2">
         <v>-17.622</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="2">
+        <f>+T24*$AH$25</f>
+        <v>32</v>
+      </c>
+      <c r="V12" s="2">
+        <f t="shared" ref="V12:AE12" si="7">+U24*$AH$25</f>
+        <v>90.101714599999994</v>
+      </c>
+      <c r="W12" s="2">
+        <f t="shared" si="7"/>
+        <v>153.64426940000001</v>
+      </c>
+      <c r="X12" s="2">
+        <f t="shared" si="7"/>
+        <v>223.00940716538003</v>
+      </c>
+      <c r="Y12" s="2">
+        <f t="shared" si="7"/>
+        <v>298.60259394730167</v>
+      </c>
+      <c r="Z12" s="2">
+        <f t="shared" si="7"/>
+        <v>380.85439813641659</v>
+      </c>
+      <c r="AA12" s="2">
+        <f t="shared" si="7"/>
+        <v>470.22194640814286</v>
+      </c>
+      <c r="AB12" s="2">
+        <f t="shared" si="7"/>
+        <v>567.19046072834192</v>
+      </c>
+      <c r="AC12" s="2">
+        <f t="shared" si="7"/>
+        <v>672.27488080984153</v>
+      </c>
+      <c r="AD12" s="2">
+        <f t="shared" si="7"/>
+        <v>786.02157664347749</v>
+      </c>
+      <c r="AE12" s="2">
+        <f t="shared" si="7"/>
+        <v>909.01015597276648</v>
+      </c>
+    </row>
+    <row r="13" spans="1:140" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2">
-        <f t="shared" ref="D13:G13" si="3">+D11+D12</f>
+        <f t="shared" ref="D13:G13" si="8">+D11+D12</f>
         <v>449.41799999999995</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>396.09100000000029</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H13" s="2">
@@ -1200,39 +1592,83 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="M13" s="2">
-        <f t="shared" ref="M13" si="4">+M11+M12</f>
+        <f t="shared" ref="M13" si="9">+M11+M12</f>
         <v>674.2850000000002</v>
       </c>
       <c r="N13" s="2">
-        <f t="shared" ref="N13" si="5">+N11+N12</f>
+        <f t="shared" ref="N13" si="10">+N11+N12</f>
         <v>811.14500000000021</v>
       </c>
       <c r="O13" s="2">
-        <f t="shared" ref="O13" si="6">+O11+O12</f>
+        <f t="shared" ref="O13" si="11">+O11+O12</f>
         <v>878.90799999999979</v>
       </c>
       <c r="P13" s="2">
-        <f t="shared" ref="P13:T13" si="7">+P11+P12</f>
+        <f t="shared" ref="P13:AE13" si="12">+P11+P12</f>
         <v>925.40400000000045</v>
       </c>
       <c r="Q13" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>371.87700000000052</v>
       </c>
       <c r="R13" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1308.6719999999991</v>
       </c>
       <c r="S13" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1644.2770000000003</v>
       </c>
       <c r="T13" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1668.9169999999992</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="2">
+        <f t="shared" si="12"/>
+        <v>1936.7238199999997</v>
+      </c>
+      <c r="V13" s="2">
+        <f t="shared" si="12"/>
+        <v>2118.0851600000005</v>
+      </c>
+      <c r="W13" s="2">
+        <f t="shared" si="12"/>
+        <v>2312.1712588460005</v>
+      </c>
+      <c r="X13" s="2">
+        <f t="shared" si="12"/>
+        <v>2519.7728927307198</v>
+      </c>
+      <c r="Y13" s="2">
+        <f t="shared" si="12"/>
+        <v>2741.7268063038305</v>
+      </c>
+      <c r="Z13" s="2">
+        <f t="shared" si="12"/>
+        <v>2978.9182757242102</v>
+      </c>
+      <c r="AA13" s="2">
+        <f t="shared" si="12"/>
+        <v>3232.2838106733025</v>
+      </c>
+      <c r="AB13" s="2">
+        <f t="shared" si="12"/>
+        <v>3502.8140027166546</v>
+      </c>
+      <c r="AC13" s="2">
+        <f t="shared" si="12"/>
+        <v>3791.5565277878613</v>
+      </c>
+      <c r="AD13" s="2">
+        <f t="shared" si="12"/>
+        <v>4099.6193109763017</v>
+      </c>
+      <c r="AE13" s="2">
+        <f t="shared" si="12"/>
+        <v>4428.173862228371</v>
+      </c>
+    </row>
+    <row r="14" spans="1:140" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1275,26 +1711,70 @@
       <c r="T14" s="2">
         <v>404.64600000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="2">
+        <f>+U13*0.25</f>
+        <v>484.18095499999993</v>
+      </c>
+      <c r="V14" s="2">
+        <f t="shared" ref="V14:AE14" si="13">+V13*0.25</f>
+        <v>529.52129000000014</v>
+      </c>
+      <c r="W14" s="2">
+        <f t="shared" si="13"/>
+        <v>578.04281471150011</v>
+      </c>
+      <c r="X14" s="2">
+        <f t="shared" si="13"/>
+        <v>629.94322318267996</v>
+      </c>
+      <c r="Y14" s="2">
+        <f t="shared" si="13"/>
+        <v>685.43170157595762</v>
+      </c>
+      <c r="Z14" s="2">
+        <f t="shared" si="13"/>
+        <v>744.72956893105254</v>
+      </c>
+      <c r="AA14" s="2">
+        <f t="shared" si="13"/>
+        <v>808.07095266832562</v>
+      </c>
+      <c r="AB14" s="2">
+        <f t="shared" si="13"/>
+        <v>875.70350067916365</v>
+      </c>
+      <c r="AC14" s="2">
+        <f t="shared" si="13"/>
+        <v>947.88913194696534</v>
+      </c>
+      <c r="AD14" s="2">
+        <f t="shared" si="13"/>
+        <v>1024.9048277440754</v>
+      </c>
+      <c r="AE14" s="2">
+        <f t="shared" si="13"/>
+        <v>1107.0434655570928</v>
+      </c>
+    </row>
+    <row r="15" spans="1:140" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2">
-        <f t="shared" ref="D15:G15" si="8">+D13-D14</f>
+        <f t="shared" ref="D15:G15" si="14">+D13-D14</f>
         <v>347.05099999999993</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>300.10200000000032</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H15" s="2">
@@ -1308,39 +1788,519 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="M15" s="2">
-        <f t="shared" ref="M15:N15" si="9">+M13-M14</f>
+        <f t="shared" ref="M15:N15" si="15">+M13-M14</f>
         <v>428.33100000000019</v>
       </c>
       <c r="N15" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>579.52000000000021</v>
       </c>
       <c r="O15" s="2">
-        <f t="shared" ref="O15" si="10">+O13-O14</f>
+        <f t="shared" ref="O15" si="16">+O13-O14</f>
         <v>678.32599999999979</v>
       </c>
       <c r="P15" s="2">
-        <f t="shared" ref="P15:T15" si="11">+P13-P14</f>
+        <f t="shared" ref="P15:AE15" si="17">+P13-P14</f>
         <v>725.19900000000041</v>
       </c>
       <c r="Q15" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>316.62700000000052</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>998.67999999999915</v>
       </c>
       <c r="S15" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1243.1410000000003</v>
       </c>
       <c r="T15" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1264.2709999999993</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="2">
+        <f t="shared" si="17"/>
+        <v>1452.5428649999999</v>
+      </c>
+      <c r="V15" s="2">
+        <f t="shared" si="17"/>
+        <v>1588.5638700000004</v>
+      </c>
+      <c r="W15" s="2">
+        <f t="shared" si="17"/>
+        <v>1734.1284441345003</v>
+      </c>
+      <c r="X15" s="2">
+        <f t="shared" si="17"/>
+        <v>1889.8296695480399</v>
+      </c>
+      <c r="Y15" s="2">
+        <f t="shared" si="17"/>
+        <v>2056.295104727873</v>
+      </c>
+      <c r="Z15" s="2">
+        <f t="shared" si="17"/>
+        <v>2234.1887067931575</v>
+      </c>
+      <c r="AA15" s="2">
+        <f t="shared" si="17"/>
+        <v>2424.2128580049766</v>
+      </c>
+      <c r="AB15" s="2">
+        <f t="shared" si="17"/>
+        <v>2627.1105020374907</v>
+      </c>
+      <c r="AC15" s="2">
+        <f t="shared" si="17"/>
+        <v>2843.667395840896</v>
+      </c>
+      <c r="AD15" s="2">
+        <f t="shared" si="17"/>
+        <v>3074.7144832322265</v>
+      </c>
+      <c r="AE15" s="2">
+        <f t="shared" si="17"/>
+        <v>3321.1303966712785</v>
+      </c>
+      <c r="AF15" s="2">
+        <f>+AE15*(1+$AH$23)</f>
+        <v>3287.9190927045656</v>
+      </c>
+      <c r="AG15" s="2">
+        <f t="shared" ref="AG15:CR15" si="18">+AF15*(1+$AH$23)</f>
+        <v>3255.0399017775198</v>
+      </c>
+      <c r="AH15" s="2">
+        <f t="shared" si="18"/>
+        <v>3222.4895027597445</v>
+      </c>
+      <c r="AI15" s="2">
+        <f t="shared" si="18"/>
+        <v>3190.2646077321469</v>
+      </c>
+      <c r="AJ15" s="2">
+        <f t="shared" si="18"/>
+        <v>3158.3619616548253</v>
+      </c>
+      <c r="AK15" s="2">
+        <f t="shared" si="18"/>
+        <v>3126.7783420382771</v>
+      </c>
+      <c r="AL15" s="2">
+        <f t="shared" si="18"/>
+        <v>3095.5105586178943</v>
+      </c>
+      <c r="AM15" s="2">
+        <f t="shared" si="18"/>
+        <v>3064.5554530317154</v>
+      </c>
+      <c r="AN15" s="2">
+        <f t="shared" si="18"/>
+        <v>3033.9098985013984</v>
+      </c>
+      <c r="AO15" s="2">
+        <f t="shared" si="18"/>
+        <v>3003.5707995163843</v>
+      </c>
+      <c r="AP15" s="2">
+        <f t="shared" si="18"/>
+        <v>2973.5350915212207</v>
+      </c>
+      <c r="AQ15" s="2">
+        <f t="shared" si="18"/>
+        <v>2943.7997406060085</v>
+      </c>
+      <c r="AR15" s="2">
+        <f t="shared" si="18"/>
+        <v>2914.3617431999483</v>
+      </c>
+      <c r="AS15" s="2">
+        <f t="shared" si="18"/>
+        <v>2885.2181257679485</v>
+      </c>
+      <c r="AT15" s="2">
+        <f t="shared" si="18"/>
+        <v>2856.3659445102689</v>
+      </c>
+      <c r="AU15" s="2">
+        <f t="shared" si="18"/>
+        <v>2827.8022850651664</v>
+      </c>
+      <c r="AV15" s="2">
+        <f t="shared" si="18"/>
+        <v>2799.5242622145147</v>
+      </c>
+      <c r="AW15" s="2">
+        <f t="shared" si="18"/>
+        <v>2771.5290195923694</v>
+      </c>
+      <c r="AX15" s="2">
+        <f t="shared" si="18"/>
+        <v>2743.8137293964455</v>
+      </c>
+      <c r="AY15" s="2">
+        <f t="shared" si="18"/>
+        <v>2716.3755921024808</v>
+      </c>
+      <c r="AZ15" s="2">
+        <f t="shared" si="18"/>
+        <v>2689.211836181456</v>
+      </c>
+      <c r="BA15" s="2">
+        <f t="shared" si="18"/>
+        <v>2662.3197178196415</v>
+      </c>
+      <c r="BB15" s="2">
+        <f t="shared" si="18"/>
+        <v>2635.6965206414452</v>
+      </c>
+      <c r="BC15" s="2">
+        <f t="shared" si="18"/>
+        <v>2609.3395554350309</v>
+      </c>
+      <c r="BD15" s="2">
+        <f t="shared" si="18"/>
+        <v>2583.2461598806804</v>
+      </c>
+      <c r="BE15" s="2">
+        <f t="shared" si="18"/>
+        <v>2557.4136982818736</v>
+      </c>
+      <c r="BF15" s="2">
+        <f t="shared" si="18"/>
+        <v>2531.8395612990548</v>
+      </c>
+      <c r="BG15" s="2">
+        <f t="shared" si="18"/>
+        <v>2506.5211656860643</v>
+      </c>
+      <c r="BH15" s="2">
+        <f t="shared" si="18"/>
+        <v>2481.4559540292034</v>
+      </c>
+      <c r="BI15" s="2">
+        <f t="shared" si="18"/>
+        <v>2456.6413944889114</v>
+      </c>
+      <c r="BJ15" s="2">
+        <f t="shared" si="18"/>
+        <v>2432.0749805440223</v>
+      </c>
+      <c r="BK15" s="2">
+        <f t="shared" si="18"/>
+        <v>2407.754230738582</v>
+      </c>
+      <c r="BL15" s="2">
+        <f t="shared" si="18"/>
+        <v>2383.676688431196</v>
+      </c>
+      <c r="BM15" s="2">
+        <f t="shared" si="18"/>
+        <v>2359.8399215468839</v>
+      </c>
+      <c r="BN15" s="2">
+        <f t="shared" si="18"/>
+        <v>2336.2415223314151</v>
+      </c>
+      <c r="BO15" s="2">
+        <f t="shared" si="18"/>
+        <v>2312.8791071081009</v>
+      </c>
+      <c r="BP15" s="2">
+        <f t="shared" si="18"/>
+        <v>2289.7503160370197</v>
+      </c>
+      <c r="BQ15" s="2">
+        <f t="shared" si="18"/>
+        <v>2266.8528128766493</v>
+      </c>
+      <c r="BR15" s="2">
+        <f t="shared" si="18"/>
+        <v>2244.1842847478829</v>
+      </c>
+      <c r="BS15" s="2">
+        <f t="shared" si="18"/>
+        <v>2221.7424419004042</v>
+      </c>
+      <c r="BT15" s="2">
+        <f t="shared" si="18"/>
+        <v>2199.5250174814</v>
+      </c>
+      <c r="BU15" s="2">
+        <f t="shared" si="18"/>
+        <v>2177.5297673065861</v>
+      </c>
+      <c r="BV15" s="2">
+        <f t="shared" si="18"/>
+        <v>2155.7544696335203</v>
+      </c>
+      <c r="BW15" s="2">
+        <f t="shared" si="18"/>
+        <v>2134.196924937185</v>
+      </c>
+      <c r="BX15" s="2">
+        <f t="shared" si="18"/>
+        <v>2112.8549556878133</v>
+      </c>
+      <c r="BY15" s="2">
+        <f t="shared" si="18"/>
+        <v>2091.7264061309352</v>
+      </c>
+      <c r="BZ15" s="2">
+        <f t="shared" si="18"/>
+        <v>2070.809142069626</v>
+      </c>
+      <c r="CA15" s="2">
+        <f t="shared" si="18"/>
+        <v>2050.1010506489297</v>
+      </c>
+      <c r="CB15" s="2">
+        <f t="shared" si="18"/>
+        <v>2029.6000401424403</v>
+      </c>
+      <c r="CC15" s="2">
+        <f t="shared" si="18"/>
+        <v>2009.3040397410159</v>
+      </c>
+      <c r="CD15" s="2">
+        <f t="shared" si="18"/>
+        <v>1989.2109993436056</v>
+      </c>
+      <c r="CE15" s="2">
+        <f t="shared" si="18"/>
+        <v>1969.3188893501695</v>
+      </c>
+      <c r="CF15" s="2">
+        <f t="shared" si="18"/>
+        <v>1949.6257004566678</v>
+      </c>
+      <c r="CG15" s="2">
+        <f t="shared" si="18"/>
+        <v>1930.1294434521012</v>
+      </c>
+      <c r="CH15" s="2">
+        <f t="shared" si="18"/>
+        <v>1910.8281490175802</v>
+      </c>
+      <c r="CI15" s="2">
+        <f t="shared" si="18"/>
+        <v>1891.7198675274044</v>
+      </c>
+      <c r="CJ15" s="2">
+        <f t="shared" si="18"/>
+        <v>1872.8026688521304</v>
+      </c>
+      <c r="CK15" s="2">
+        <f t="shared" si="18"/>
+        <v>1854.074642163609</v>
+      </c>
+      <c r="CL15" s="2">
+        <f t="shared" si="18"/>
+        <v>1835.5338957419729</v>
+      </c>
+      <c r="CM15" s="2">
+        <f t="shared" si="18"/>
+        <v>1817.1785567845532</v>
+      </c>
+      <c r="CN15" s="2">
+        <f t="shared" si="18"/>
+        <v>1799.0067712167076</v>
+      </c>
+      <c r="CO15" s="2">
+        <f t="shared" si="18"/>
+        <v>1781.0167035045406</v>
+      </c>
+      <c r="CP15" s="2">
+        <f t="shared" si="18"/>
+        <v>1763.2065364694952</v>
+      </c>
+      <c r="CQ15" s="2">
+        <f t="shared" si="18"/>
+        <v>1745.5744711048003</v>
+      </c>
+      <c r="CR15" s="2">
+        <f t="shared" si="18"/>
+        <v>1728.1187263937522</v>
+      </c>
+      <c r="CS15" s="2">
+        <f t="shared" ref="CS15:EJ15" si="19">+CR15*(1+$AH$23)</f>
+        <v>1710.8375391298148</v>
+      </c>
+      <c r="CT15" s="2">
+        <f t="shared" si="19"/>
+        <v>1693.7291637385167</v>
+      </c>
+      <c r="CU15" s="2">
+        <f t="shared" si="19"/>
+        <v>1676.7918721011315</v>
+      </c>
+      <c r="CV15" s="2">
+        <f t="shared" si="19"/>
+        <v>1660.0239533801202</v>
+      </c>
+      <c r="CW15" s="2">
+        <f t="shared" si="19"/>
+        <v>1643.4237138463191</v>
+      </c>
+      <c r="CX15" s="2">
+        <f t="shared" si="19"/>
+        <v>1626.9894767078558</v>
+      </c>
+      <c r="CY15" s="2">
+        <f t="shared" si="19"/>
+        <v>1610.7195819407773</v>
+      </c>
+      <c r="CZ15" s="2">
+        <f t="shared" si="19"/>
+        <v>1594.6123861213696</v>
+      </c>
+      <c r="DA15" s="2">
+        <f t="shared" si="19"/>
+        <v>1578.6662622601559</v>
+      </c>
+      <c r="DB15" s="2">
+        <f t="shared" si="19"/>
+        <v>1562.8795996375543</v>
+      </c>
+      <c r="DC15" s="2">
+        <f t="shared" si="19"/>
+        <v>1547.2508036411787</v>
+      </c>
+      <c r="DD15" s="2">
+        <f t="shared" si="19"/>
+        <v>1531.7782956047668</v>
+      </c>
+      <c r="DE15" s="2">
+        <f t="shared" si="19"/>
+        <v>1516.460512648719</v>
+      </c>
+      <c r="DF15" s="2">
+        <f t="shared" si="19"/>
+        <v>1501.2959075222318</v>
+      </c>
+      <c r="DG15" s="2">
+        <f t="shared" si="19"/>
+        <v>1486.2829484470094</v>
+      </c>
+      <c r="DH15" s="2">
+        <f t="shared" si="19"/>
+        <v>1471.4201189625394</v>
+      </c>
+      <c r="DI15" s="2">
+        <f t="shared" si="19"/>
+        <v>1456.7059177729141</v>
+      </c>
+      <c r="DJ15" s="2">
+        <f t="shared" si="19"/>
+        <v>1442.138858595185</v>
+      </c>
+      <c r="DK15" s="2">
+        <f t="shared" si="19"/>
+        <v>1427.717470009233</v>
+      </c>
+      <c r="DL15" s="2">
+        <f t="shared" si="19"/>
+        <v>1413.4402953091408</v>
+      </c>
+      <c r="DM15" s="2">
+        <f t="shared" si="19"/>
+        <v>1399.3058923560493</v>
+      </c>
+      <c r="DN15" s="2">
+        <f t="shared" si="19"/>
+        <v>1385.3128334324888</v>
+      </c>
+      <c r="DO15" s="2">
+        <f t="shared" si="19"/>
+        <v>1371.4597050981638</v>
+      </c>
+      <c r="DP15" s="2">
+        <f t="shared" si="19"/>
+        <v>1357.7451080471822</v>
+      </c>
+      <c r="DQ15" s="2">
+        <f t="shared" si="19"/>
+        <v>1344.1676569667104</v>
+      </c>
+      <c r="DR15" s="2">
+        <f t="shared" si="19"/>
+        <v>1330.7259803970433</v>
+      </c>
+      <c r="DS15" s="2">
+        <f t="shared" si="19"/>
+        <v>1317.4187205930727</v>
+      </c>
+      <c r="DT15" s="2">
+        <f t="shared" si="19"/>
+        <v>1304.2445333871419</v>
+      </c>
+      <c r="DU15" s="2">
+        <f t="shared" si="19"/>
+        <v>1291.2020880532705</v>
+      </c>
+      <c r="DV15" s="2">
+        <f t="shared" si="19"/>
+        <v>1278.2900671727377</v>
+      </c>
+      <c r="DW15" s="2">
+        <f t="shared" si="19"/>
+        <v>1265.5071665010103</v>
+      </c>
+      <c r="DX15" s="2">
+        <f t="shared" si="19"/>
+        <v>1252.8520948360001</v>
+      </c>
+      <c r="DY15" s="2">
+        <f t="shared" si="19"/>
+        <v>1240.3235738876401</v>
+      </c>
+      <c r="DZ15" s="2">
+        <f t="shared" si="19"/>
+        <v>1227.9203381487637</v>
+      </c>
+      <c r="EA15" s="2">
+        <f t="shared" si="19"/>
+        <v>1215.6411347672761</v>
+      </c>
+      <c r="EB15" s="2">
+        <f t="shared" si="19"/>
+        <v>1203.4847234196034</v>
+      </c>
+      <c r="EC15" s="2">
+        <f t="shared" si="19"/>
+        <v>1191.4498761854072</v>
+      </c>
+      <c r="ED15" s="2">
+        <f t="shared" si="19"/>
+        <v>1179.5353774235532</v>
+      </c>
+      <c r="EE15" s="2">
+        <f t="shared" si="19"/>
+        <v>1167.7400236493177</v>
+      </c>
+      <c r="EF15" s="2">
+        <f t="shared" si="19"/>
+        <v>1156.0626234128245</v>
+      </c>
+      <c r="EG15" s="2">
+        <f t="shared" si="19"/>
+        <v>1144.5019971786962</v>
+      </c>
+      <c r="EH15" s="2">
+        <f t="shared" si="19"/>
+        <v>1133.0569772069093</v>
+      </c>
+      <c r="EI15" s="2">
+        <f t="shared" si="19"/>
+        <v>1121.7264074348402</v>
+      </c>
+      <c r="EJ15" s="2">
+        <f t="shared" si="19"/>
+        <v>1110.5091433604919</v>
+      </c>
+    </row>
+    <row r="16" spans="1:140" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
@@ -1364,7 +2324,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
@@ -1404,28 +2364,28 @@
         <v>54.841000000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:34" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B19" s="6" t="s">
         <v>48</v>
       </c>
       <c r="N19" s="9">
-        <f t="shared" ref="N19:Q19" si="12">+N7/M7-1</f>
+        <f t="shared" ref="N19:P19" si="20">+N7/M7-1</f>
         <v>0.21211633091555737</v>
       </c>
       <c r="O19" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.14140677229320509</v>
       </c>
       <c r="P19" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.10145780277714311</v>
       </c>
       <c r="Q19" s="9">
-        <f t="shared" ref="Q19:S19" si="13">+Q7/P7-1</f>
+        <f t="shared" ref="Q19:R19" si="21">+Q7/P7-1</f>
         <v>-0.16843789486660565</v>
       </c>
       <c r="R19" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.40295106285759963</v>
       </c>
       <c r="S19" s="9">
@@ -1436,29 +2396,73 @@
         <f>+T7/S7-1</f>
         <v>9.7831725861970975E-2</v>
       </c>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="9">
+        <f t="shared" ref="U19:AE19" si="22">+U7/T7-1</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="V19" s="9">
+        <f t="shared" si="22"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="W19" s="9">
+        <f t="shared" si="22"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="X19" s="9">
+        <f t="shared" si="22"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="Y19" s="9">
+        <f t="shared" si="22"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="Z19" s="9">
+        <f t="shared" si="22"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="AA19" s="9">
+        <f t="shared" si="22"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="AB19" s="9">
+        <f t="shared" si="22"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="AC19" s="9">
+        <f t="shared" si="22"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="AD19" s="9">
+        <f t="shared" si="22"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="AE19" s="9">
+        <f t="shared" si="22"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
         <v>49</v>
       </c>
       <c r="N20" s="7">
-        <f t="shared" ref="N20:Q20" si="14">+N3/M3-1</f>
+        <f t="shared" ref="N20:P20" si="23">+N3/M3-1</f>
         <v>0.10266940451745388</v>
       </c>
       <c r="O20" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>9.3109869646182508E-2</v>
       </c>
       <c r="P20" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>6.8143100511073307E-2</v>
       </c>
       <c r="Q20" s="7">
-        <f t="shared" ref="Q20:S20" si="15">+Q3/P3-1</f>
+        <f t="shared" ref="Q20:R20" si="24">+Q3/P3-1</f>
         <v>7.9744816586921896E-3</v>
       </c>
       <c r="R20" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>3.4810126582278444E-2</v>
       </c>
       <c r="S20" s="7">
@@ -1469,8 +2473,19 @@
         <f>+T3/S3-1</f>
         <v>2.2140221402213944E-2</v>
       </c>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+    </row>
+    <row r="21" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
         <v>38</v>
       </c>
@@ -1494,35 +2509,79 @@
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="N21" s="7">
-        <f t="shared" ref="N21:T21" si="16">+N9/N7</f>
+        <f t="shared" ref="N21:T21" si="25">+N9/N7</f>
         <v>0.35632710715224014</v>
       </c>
       <c r="O21" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>0.35870911165817898</v>
       </c>
       <c r="P21" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>0.36240056187642505</v>
       </c>
       <c r="Q21" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>0.316835808075907</v>
       </c>
       <c r="R21" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>0.39029050194018244</v>
       </c>
       <c r="S21" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>0.39618732477974411</v>
       </c>
       <c r="T21" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>0.39091474550121463</v>
       </c>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="7">
+        <f t="shared" ref="U21:AE21" si="26">+U9/U7</f>
+        <v>0.4</v>
+      </c>
+      <c r="V21" s="7">
+        <f t="shared" si="26"/>
+        <v>0.4</v>
+      </c>
+      <c r="W21" s="7">
+        <f t="shared" si="26"/>
+        <v>0.4</v>
+      </c>
+      <c r="X21" s="7">
+        <f t="shared" si="26"/>
+        <v>0.4</v>
+      </c>
+      <c r="Y21" s="7">
+        <f t="shared" si="26"/>
+        <v>0.40000000000000008</v>
+      </c>
+      <c r="Z21" s="7">
+        <f t="shared" si="26"/>
+        <v>0.4</v>
+      </c>
+      <c r="AA21" s="7">
+        <f t="shared" si="26"/>
+        <v>0.4</v>
+      </c>
+      <c r="AB21" s="7">
+        <f t="shared" si="26"/>
+        <v>0.4</v>
+      </c>
+      <c r="AC21" s="7">
+        <f t="shared" si="26"/>
+        <v>0.4</v>
+      </c>
+      <c r="AD21" s="7">
+        <f t="shared" si="26"/>
+        <v>0.4</v>
+      </c>
+      <c r="AE21" s="7">
+        <f t="shared" si="26"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B22" s="2" t="s">
         <v>50</v>
       </c>
@@ -1531,55 +2590,140 @@
         <v>9.9256337348000878E-2</v>
       </c>
       <c r="O22" s="7">
-        <f t="shared" ref="O22:T22" si="17">+O4/N4-1</f>
+        <f t="shared" ref="O22:T22" si="27">+O4/N4-1</f>
         <v>4.4183026782710577E-2</v>
       </c>
       <c r="P22" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>3.1189362408585275E-2</v>
       </c>
       <c r="Q22" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.17501670898949662</v>
       </c>
       <c r="R22" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.35575699040673259</v>
       </c>
       <c r="S22" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.14176901743685177</v>
       </c>
       <c r="T22" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>7.4051977287343584E-2</v>
       </c>
-    </row>
-    <row r="24" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+    </row>
+    <row r="23" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="AG23" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH23" s="7">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="24" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I24" s="2">
         <v>413.96199999999999</v>
       </c>
-    </row>
-    <row r="25" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T24" s="2">
+        <v>800</v>
+      </c>
+      <c r="U24" s="2">
+        <f>+T24+U15</f>
+        <v>2252.5428649999999</v>
+      </c>
+      <c r="V24" s="2">
+        <f t="shared" ref="V24:AE24" si="28">+U24+V15</f>
+        <v>3841.1067350000003</v>
+      </c>
+      <c r="W24" s="2">
+        <f t="shared" si="28"/>
+        <v>5575.2351791345009</v>
+      </c>
+      <c r="X24" s="2">
+        <f t="shared" si="28"/>
+        <v>7465.0648486825412</v>
+      </c>
+      <c r="Y24" s="2">
+        <f t="shared" si="28"/>
+        <v>9521.3599534104142</v>
+      </c>
+      <c r="Z24" s="2">
+        <f t="shared" si="28"/>
+        <v>11755.548660203571</v>
+      </c>
+      <c r="AA24" s="2">
+        <f t="shared" si="28"/>
+        <v>14179.761518208546</v>
+      </c>
+      <c r="AB24" s="2">
+        <f t="shared" si="28"/>
+        <v>16806.872020246039</v>
+      </c>
+      <c r="AC24" s="2">
+        <f t="shared" si="28"/>
+        <v>19650.539416086936</v>
+      </c>
+      <c r="AD24" s="2">
+        <f t="shared" si="28"/>
+        <v>22725.253899319163</v>
+      </c>
+      <c r="AE24" s="2">
+        <f t="shared" si="28"/>
+        <v>26046.384295990443</v>
+      </c>
+      <c r="AG24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH24" s="7">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="25" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I25" s="2">
         <v>200.863</v>
       </c>
-    </row>
-    <row r="26" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AG25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH25" s="7">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="26" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B26" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I26" s="2">
         <v>1998.2860000000001</v>
       </c>
-    </row>
-    <row r="27" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AG26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH26" s="2">
+        <f>NPV(AH24,U15:DZ15)</f>
+        <v>27296.730024673219</v>
+      </c>
+    </row>
+    <row r="27" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B27" s="2" t="s">
         <v>21</v>
       </c>
@@ -1587,7 +2731,7 @@
         <v>132.023</v>
       </c>
     </row>
-    <row r="28" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B28" s="2" t="s">
         <v>14</v>
       </c>
@@ -1595,7 +2739,7 @@
         <v>53.606999999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B29" s="2" t="s">
         <v>22</v>
       </c>
@@ -1603,7 +2747,7 @@
         <v>1225.8499999999999</v>
       </c>
     </row>
-    <row r="30" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B30" s="2" t="s">
         <v>23</v>
       </c>
@@ -1611,7 +2755,7 @@
         <v>1599.7349999999999</v>
       </c>
     </row>
-    <row r="31" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B31" s="2" t="s">
         <v>24</v>
       </c>
@@ -1620,7 +2764,7 @@
         <v>11.226999999999999</v>
       </c>
     </row>
-    <row r="32" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B32" s="2" t="s">
         <v>26</v>
       </c>
@@ -1628,7 +2772,7 @@
         <v>46.28</v>
       </c>
     </row>
-    <row r="33" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B33" s="2" t="s">
         <v>18</v>
       </c>
@@ -1636,7 +2780,7 @@
         <v>55.575000000000003</v>
       </c>
     </row>
-    <row r="34" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B34" s="2" t="s">
         <v>17</v>
       </c>
@@ -1645,7 +2789,7 @@
         <v>5737.4079999999994</v>
       </c>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B36" s="2" t="s">
         <v>25</v>
       </c>
@@ -1655,7 +2799,7 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B37" s="2" t="s">
         <v>27</v>
       </c>
@@ -1665,7 +2809,7 @@
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B38" s="2" t="s">
         <v>28</v>
       </c>
@@ -1675,7 +2819,7 @@
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B39" s="2" t="s">
         <v>23</v>
       </c>
@@ -1686,7 +2830,7 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B40" s="2" t="s">
         <v>32</v>
       </c>
@@ -1696,7 +2840,7 @@
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B41" s="2" t="s">
         <v>31</v>
       </c>
@@ -1706,7 +2850,7 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B42" s="2" t="s">
         <v>30</v>
       </c>
@@ -1716,7 +2860,7 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>29</v>
       </c>
@@ -1727,7 +2871,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
         <v>34</v>
       </c>
@@ -1750,7 +2894,7 @@
         <v>1476.2660000000001</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
         <v>35</v>
       </c>
@@ -1773,7 +2917,7 @@
         <v>435.267</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
         <v>36</v>
       </c>
